--- a/assets/majors.xlsx
+++ b/assets/majors.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alasw\Documents\UMich\MADS\Courses\SIADS - 593 Milestone 1\Project\Project\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{55A4D454-BA0B-4361-BEB4-38E71F18EDC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98AA2F77-3089-4D5F-AD9D-1A64DB3FAF6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="1110" windowWidth="21090" windowHeight="13190" xr2:uid="{8E3DFEB7-E3CC-4047-925A-F8240E372E2B}"/>
+    <workbookView xWindow="6420" yWindow="2740" windowWidth="28800" windowHeight="16320" xr2:uid="{8E3DFEB7-E3CC-4047-925A-F8240E372E2B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$349</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="362">
   <si>
     <t>Business and financial operations occupations</t>
   </si>
@@ -1110,6 +1113,18 @@
   </si>
   <si>
     <t>Women's Studies BSChem</t>
+  </si>
+  <si>
+    <t>Architecture and engineering occupations</t>
+  </si>
+  <si>
+    <t>Community and social service occupations</t>
+  </si>
+  <si>
+    <t>Healthcare practitioners and technical occupations</t>
+  </si>
+  <si>
+    <t>Management occupations</t>
   </si>
 </sst>
 </file>
@@ -1125,18 +1140,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1151,9 +1160,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1494,8 +1502,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="34.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.26953125" customWidth="1"/>
+    <col min="2" max="2" width="71.08984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
@@ -1511,7 +1519,7 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>358</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -1519,7 +1527,7 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -1527,7 +1535,7 @@
         <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -1535,7 +1543,7 @@
         <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
@@ -1543,7 +1551,7 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
@@ -1551,7 +1559,7 @@
         <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
@@ -1559,7 +1567,7 @@
         <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
@@ -1567,7 +1575,7 @@
         <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
@@ -1575,7 +1583,7 @@
         <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
@@ -1583,7 +1591,7 @@
         <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
@@ -1591,7 +1599,7 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
@@ -1599,7 +1607,7 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
@@ -1607,7 +1615,7 @@
         <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
@@ -1615,7 +1623,7 @@
         <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
@@ -1623,7 +1631,7 @@
         <v>25</v>
       </c>
       <c r="B16" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
@@ -1631,7 +1639,7 @@
         <v>26</v>
       </c>
       <c r="B17" t="s">
-        <v>4</v>
+        <v>358</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
@@ -1719,7 +1727,7 @@
         <v>37</v>
       </c>
       <c r="B28" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
@@ -1727,7 +1735,7 @@
         <v>38</v>
       </c>
       <c r="B29" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
@@ -1735,25 +1743,31 @@
         <v>39</v>
       </c>
       <c r="B30" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>40</v>
       </c>
+      <c r="B31" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>41</v>
       </c>
+      <c r="B32" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>42</v>
       </c>
       <c r="B33" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
@@ -1761,7 +1775,7 @@
         <v>43</v>
       </c>
       <c r="B34" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
@@ -1769,7 +1783,7 @@
         <v>44</v>
       </c>
       <c r="B35" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
@@ -1777,7 +1791,7 @@
         <v>45</v>
       </c>
       <c r="B36" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
@@ -1785,7 +1799,7 @@
         <v>46</v>
       </c>
       <c r="B37" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
@@ -1793,7 +1807,7 @@
         <v>47</v>
       </c>
       <c r="B38" t="s">
-        <v>4</v>
+        <v>358</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
@@ -1801,7 +1815,7 @@
         <v>48</v>
       </c>
       <c r="B39" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
@@ -1809,7 +1823,7 @@
         <v>49</v>
       </c>
       <c r="B40" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
@@ -1817,7 +1831,7 @@
         <v>50</v>
       </c>
       <c r="B41" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
@@ -1825,7 +1839,7 @@
         <v>51</v>
       </c>
       <c r="B42" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
@@ -1833,7 +1847,7 @@
         <v>52</v>
       </c>
       <c r="B43" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
@@ -1841,7 +1855,7 @@
         <v>53</v>
       </c>
       <c r="B44" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
@@ -1849,7 +1863,7 @@
         <v>54</v>
       </c>
       <c r="B45" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
@@ -1857,7 +1871,7 @@
         <v>55</v>
       </c>
       <c r="B46" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
@@ -1865,7 +1879,7 @@
         <v>56</v>
       </c>
       <c r="B47" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
@@ -1873,7 +1887,7 @@
         <v>57</v>
       </c>
       <c r="B48" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
@@ -1881,7 +1895,7 @@
         <v>58</v>
       </c>
       <c r="B49" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
@@ -1889,7 +1903,7 @@
         <v>59</v>
       </c>
       <c r="B50" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
@@ -1905,7 +1919,7 @@
         <v>62</v>
       </c>
       <c r="B52" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
@@ -1913,7 +1927,7 @@
         <v>63</v>
       </c>
       <c r="B53" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
@@ -1921,20 +1935,23 @@
         <v>64</v>
       </c>
       <c r="B54" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>65</v>
       </c>
+      <c r="B55" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>66</v>
       </c>
       <c r="B56" t="s">
-        <v>4</v>
+        <v>358</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
@@ -1942,7 +1959,7 @@
         <v>67</v>
       </c>
       <c r="B57" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
@@ -1950,7 +1967,7 @@
         <v>68</v>
       </c>
       <c r="B58" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
@@ -1958,7 +1975,7 @@
         <v>69</v>
       </c>
       <c r="B59" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
@@ -1982,7 +1999,7 @@
         <v>72</v>
       </c>
       <c r="B62" t="s">
-        <v>4</v>
+        <v>358</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
@@ -1990,7 +2007,7 @@
         <v>73</v>
       </c>
       <c r="B63" t="s">
-        <v>4</v>
+        <v>358</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
@@ -2014,7 +2031,7 @@
         <v>76</v>
       </c>
       <c r="B66" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
@@ -2022,7 +2039,7 @@
         <v>77</v>
       </c>
       <c r="B67" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
@@ -2030,7 +2047,7 @@
         <v>78</v>
       </c>
       <c r="B68" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
@@ -2054,7 +2071,7 @@
         <v>81</v>
       </c>
       <c r="B71" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
@@ -2062,7 +2079,7 @@
         <v>82</v>
       </c>
       <c r="B72" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
@@ -2070,7 +2087,7 @@
         <v>83</v>
       </c>
       <c r="B73" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
@@ -2078,7 +2095,7 @@
         <v>84</v>
       </c>
       <c r="B74" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
@@ -2126,7 +2143,7 @@
         <v>90</v>
       </c>
       <c r="B80" t="s">
-        <v>4</v>
+        <v>358</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
@@ -2166,7 +2183,7 @@
         <v>95</v>
       </c>
       <c r="B85" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
@@ -2174,7 +2191,7 @@
         <v>96</v>
       </c>
       <c r="B86" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
@@ -2182,7 +2199,7 @@
         <v>97</v>
       </c>
       <c r="B87" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
@@ -2213,11 +2230,17 @@
       <c r="A91" t="s">
         <v>101</v>
       </c>
+      <c r="B91" t="s">
+        <v>360</v>
+      </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>102</v>
       </c>
+      <c r="B92" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
@@ -2256,7 +2279,7 @@
         <v>107</v>
       </c>
       <c r="B97" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.35">
@@ -2264,7 +2287,7 @@
         <v>108</v>
       </c>
       <c r="B98" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.35">
@@ -2272,7 +2295,7 @@
         <v>109</v>
       </c>
       <c r="B99" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.35">
@@ -2280,7 +2303,7 @@
         <v>110</v>
       </c>
       <c r="B100" t="s">
-        <v>4</v>
+        <v>358</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.35">
@@ -2288,7 +2311,7 @@
         <v>111</v>
       </c>
       <c r="B101" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.35">
@@ -2296,7 +2319,7 @@
         <v>112</v>
       </c>
       <c r="B102" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.35">
@@ -2304,7 +2327,7 @@
         <v>113</v>
       </c>
       <c r="B103" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.35">
@@ -2312,7 +2335,7 @@
         <v>114</v>
       </c>
       <c r="B104" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.35">
@@ -2320,7 +2343,7 @@
         <v>115</v>
       </c>
       <c r="B105" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.35">
@@ -2360,7 +2383,7 @@
         <v>120</v>
       </c>
       <c r="B110" t="s">
-        <v>4</v>
+        <v>358</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.35">
@@ -2368,7 +2391,7 @@
         <v>121</v>
       </c>
       <c r="B111" t="s">
-        <v>4</v>
+        <v>358</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.35">
@@ -2376,7 +2399,7 @@
         <v>122</v>
       </c>
       <c r="B112" t="s">
-        <v>4</v>
+        <v>358</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.35">
@@ -2384,7 +2407,7 @@
         <v>123</v>
       </c>
       <c r="B113" t="s">
-        <v>4</v>
+        <v>358</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.35">
@@ -2392,7 +2415,7 @@
         <v>124</v>
       </c>
       <c r="B114" t="s">
-        <v>4</v>
+        <v>358</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.35">
@@ -2400,7 +2423,7 @@
         <v>125</v>
       </c>
       <c r="B115" t="s">
-        <v>4</v>
+        <v>358</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.35">
@@ -2408,7 +2431,7 @@
         <v>126</v>
       </c>
       <c r="B116" t="s">
-        <v>4</v>
+        <v>358</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.35">
@@ -2416,7 +2439,7 @@
         <v>127</v>
       </c>
       <c r="B117" t="s">
-        <v>4</v>
+        <v>358</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.35">
@@ -2424,7 +2447,7 @@
         <v>128</v>
       </c>
       <c r="B118" t="s">
-        <v>4</v>
+        <v>358</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.35">
@@ -2432,7 +2455,7 @@
         <v>129</v>
       </c>
       <c r="B119" t="s">
-        <v>4</v>
+        <v>358</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.35">
@@ -2440,7 +2463,7 @@
         <v>130</v>
       </c>
       <c r="B120" t="s">
-        <v>4</v>
+        <v>358</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.35">
@@ -2448,7 +2471,7 @@
         <v>131</v>
       </c>
       <c r="B121" t="s">
-        <v>4</v>
+        <v>358</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.35">
@@ -2456,7 +2479,7 @@
         <v>132</v>
       </c>
       <c r="B122" t="s">
-        <v>4</v>
+        <v>358</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.35">
@@ -2464,7 +2487,7 @@
         <v>133</v>
       </c>
       <c r="B123" t="s">
-        <v>4</v>
+        <v>358</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.35">
@@ -2512,7 +2535,7 @@
         <v>139</v>
       </c>
       <c r="B129" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.35">
@@ -2520,7 +2543,7 @@
         <v>140</v>
       </c>
       <c r="B130" t="s">
-        <v>4</v>
+        <v>358</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.35">
@@ -2528,7 +2551,7 @@
         <v>141</v>
       </c>
       <c r="B131" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.35">
@@ -2536,7 +2559,7 @@
         <v>142</v>
       </c>
       <c r="B132" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.35">
@@ -2559,6 +2582,9 @@
       <c r="A135" t="s">
         <v>145</v>
       </c>
+      <c r="B135" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
@@ -2597,7 +2623,7 @@
         <v>150</v>
       </c>
       <c r="B140" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.35">
@@ -2605,7 +2631,7 @@
         <v>151</v>
       </c>
       <c r="B141" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.35">
@@ -2613,7 +2639,7 @@
         <v>152</v>
       </c>
       <c r="B142" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.35">
@@ -2637,7 +2663,7 @@
         <v>155</v>
       </c>
       <c r="B145" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.35">
@@ -2645,7 +2671,7 @@
         <v>156</v>
       </c>
       <c r="B146" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.35">
@@ -2772,25 +2798,31 @@
       <c r="A162" t="s">
         <v>173</v>
       </c>
+      <c r="B162" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>174</v>
       </c>
+      <c r="B163" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>175</v>
       </c>
       <c r="B164" t="s">
-        <v>4</v>
+        <v>358</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>176</v>
       </c>
-      <c r="B165" s="1" t="s">
+      <c r="B165" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2798,7 +2830,7 @@
       <c r="A166" t="s">
         <v>177</v>
       </c>
-      <c r="B166" s="1" t="s">
+      <c r="B166" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2839,7 +2871,7 @@
         <v>182</v>
       </c>
       <c r="B171" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.35">
@@ -2847,7 +2879,7 @@
         <v>183</v>
       </c>
       <c r="B172" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.35">
@@ -2855,7 +2887,7 @@
         <v>184</v>
       </c>
       <c r="B173" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.35">
@@ -2863,7 +2895,7 @@
         <v>185</v>
       </c>
       <c r="B174" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.35">
@@ -2871,7 +2903,7 @@
         <v>186</v>
       </c>
       <c r="B175" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.35">
@@ -2887,7 +2919,7 @@
         <v>188</v>
       </c>
       <c r="B177" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.35">
@@ -2895,7 +2927,7 @@
         <v>189</v>
       </c>
       <c r="B178" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.35">
@@ -2935,7 +2967,7 @@
         <v>194</v>
       </c>
       <c r="B183" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.35">
@@ -2943,7 +2975,7 @@
         <v>195</v>
       </c>
       <c r="B184" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.35">
@@ -2951,7 +2983,7 @@
         <v>196</v>
       </c>
       <c r="B185" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.35">
@@ -2959,7 +2991,7 @@
         <v>197</v>
       </c>
       <c r="B186" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.35">
@@ -2967,7 +2999,7 @@
         <v>198</v>
       </c>
       <c r="B187" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.35">
@@ -2975,7 +3007,7 @@
         <v>199</v>
       </c>
       <c r="B188" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.35">
@@ -2983,7 +3015,7 @@
         <v>200</v>
       </c>
       <c r="B189" t="s">
-        <v>1</v>
+        <v>360</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.35">
@@ -2999,7 +3031,7 @@
         <v>202</v>
       </c>
       <c r="B191" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.35">
@@ -3007,7 +3039,7 @@
         <v>203</v>
       </c>
       <c r="B192" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.35">
@@ -3031,7 +3063,7 @@
         <v>206</v>
       </c>
       <c r="B195" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.35">
@@ -3063,7 +3095,7 @@
         <v>210</v>
       </c>
       <c r="B199" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.35">
@@ -3071,7 +3103,7 @@
         <v>211</v>
       </c>
       <c r="B200" t="s">
-        <v>4</v>
+        <v>358</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.35">
@@ -3103,7 +3135,7 @@
         <v>215</v>
       </c>
       <c r="B204" t="s">
-        <v>4</v>
+        <v>358</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.35">
@@ -3119,7 +3151,7 @@
         <v>217</v>
       </c>
       <c r="B206" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.35">
@@ -3151,7 +3183,7 @@
         <v>221</v>
       </c>
       <c r="B210" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.35">
@@ -3159,7 +3191,7 @@
         <v>222</v>
       </c>
       <c r="B211" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.35">
@@ -3167,7 +3199,7 @@
         <v>223</v>
       </c>
       <c r="B212" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.35">
@@ -3175,7 +3207,7 @@
         <v>224</v>
       </c>
       <c r="B213" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.35">
@@ -3207,7 +3239,7 @@
         <v>228</v>
       </c>
       <c r="B217" t="s">
-        <v>172</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.35">
@@ -3215,7 +3247,7 @@
         <v>229</v>
       </c>
       <c r="B218" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.35">
@@ -3319,7 +3351,7 @@
         <v>242</v>
       </c>
       <c r="B231" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.35">
@@ -3343,7 +3375,7 @@
         <v>245</v>
       </c>
       <c r="B234" t="s">
-        <v>4</v>
+        <v>358</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.35">
@@ -3351,7 +3383,7 @@
         <v>246</v>
       </c>
       <c r="B235" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.35">
@@ -3359,7 +3391,7 @@
         <v>247</v>
       </c>
       <c r="B236" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.35">
@@ -3367,7 +3399,7 @@
         <v>248</v>
       </c>
       <c r="B237" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.35">
@@ -3375,7 +3407,7 @@
         <v>249</v>
       </c>
       <c r="B238" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.35">
@@ -3383,7 +3415,7 @@
         <v>250</v>
       </c>
       <c r="B239" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.35">
@@ -3391,7 +3423,7 @@
         <v>251</v>
       </c>
       <c r="B240" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.35">
@@ -3399,7 +3431,7 @@
         <v>252</v>
       </c>
       <c r="B241" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.35">
@@ -3407,7 +3439,7 @@
         <v>253</v>
       </c>
       <c r="B242" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.35">
@@ -3415,7 +3447,7 @@
         <v>254</v>
       </c>
       <c r="B243" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.35">
@@ -3423,7 +3455,7 @@
         <v>255</v>
       </c>
       <c r="B244" t="s">
-        <v>6</v>
+        <v>172</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.35">
@@ -3431,7 +3463,7 @@
         <v>256</v>
       </c>
       <c r="B245" t="s">
-        <v>6</v>
+        <v>172</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.35">
@@ -3439,7 +3471,7 @@
         <v>257</v>
       </c>
       <c r="B246" t="s">
-        <v>6</v>
+        <v>172</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.35">
@@ -3447,7 +3479,7 @@
         <v>258</v>
       </c>
       <c r="B247" t="s">
-        <v>6</v>
+        <v>172</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.35">
@@ -3455,7 +3487,7 @@
         <v>259</v>
       </c>
       <c r="B248" t="s">
-        <v>6</v>
+        <v>172</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.35">
@@ -3463,7 +3495,7 @@
         <v>260</v>
       </c>
       <c r="B249" t="s">
-        <v>6</v>
+        <v>172</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.35">
@@ -3471,7 +3503,7 @@
         <v>261</v>
       </c>
       <c r="B250" t="s">
-        <v>6</v>
+        <v>172</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.35">
@@ -3543,7 +3575,7 @@
         <v>269</v>
       </c>
       <c r="B259" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.35">
@@ -3551,7 +3583,7 @@
         <v>270</v>
       </c>
       <c r="B260" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.35">
@@ -3559,7 +3591,7 @@
         <v>271</v>
       </c>
       <c r="B261" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.35">
@@ -3567,7 +3599,7 @@
         <v>272</v>
       </c>
       <c r="B262" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.35">
@@ -3583,7 +3615,7 @@
         <v>274</v>
       </c>
       <c r="B264" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.35">
@@ -3591,7 +3623,7 @@
         <v>275</v>
       </c>
       <c r="B265" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.35">
@@ -3599,7 +3631,7 @@
         <v>276</v>
       </c>
       <c r="B266" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.35">
@@ -3607,7 +3639,7 @@
         <v>277</v>
       </c>
       <c r="B267" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.35">
@@ -3615,7 +3647,7 @@
         <v>278</v>
       </c>
       <c r="B268" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.35">
@@ -3623,7 +3655,7 @@
         <v>279</v>
       </c>
       <c r="B269" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.35">
@@ -3631,7 +3663,7 @@
         <v>280</v>
       </c>
       <c r="B270" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.35">
@@ -3719,7 +3751,7 @@
         <v>291</v>
       </c>
       <c r="B281" t="s">
-        <v>4</v>
+        <v>358</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.35">
@@ -3727,7 +3759,7 @@
         <v>292</v>
       </c>
       <c r="B282" t="s">
-        <v>4</v>
+        <v>358</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.35">
@@ -3735,7 +3767,7 @@
         <v>293</v>
       </c>
       <c r="B283" t="s">
-        <v>4</v>
+        <v>358</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.35">
@@ -3743,7 +3775,7 @@
         <v>294</v>
       </c>
       <c r="B284" t="s">
-        <v>4</v>
+        <v>358</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.35">
@@ -3751,7 +3783,7 @@
         <v>295</v>
       </c>
       <c r="B285" t="s">
-        <v>4</v>
+        <v>358</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.35">
@@ -3759,7 +3791,7 @@
         <v>296</v>
       </c>
       <c r="B286" t="s">
-        <v>4</v>
+        <v>358</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.35">
@@ -3767,7 +3799,7 @@
         <v>297</v>
       </c>
       <c r="B287" t="s">
-        <v>4</v>
+        <v>358</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.35">
@@ -3775,7 +3807,7 @@
         <v>298</v>
       </c>
       <c r="B288" t="s">
-        <v>4</v>
+        <v>358</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.35">
@@ -3783,7 +3815,7 @@
         <v>299</v>
       </c>
       <c r="B289" t="s">
-        <v>4</v>
+        <v>358</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.35">
@@ -3791,14 +3823,14 @@
         <v>300</v>
       </c>
       <c r="B290" t="s">
-        <v>4</v>
+        <v>358</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
         <v>301</v>
       </c>
-      <c r="B291" s="1" t="s">
+      <c r="B291" t="s">
         <v>0</v>
       </c>
     </row>
@@ -3807,7 +3839,7 @@
         <v>302</v>
       </c>
       <c r="B292" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.35">
@@ -3815,7 +3847,7 @@
         <v>303</v>
       </c>
       <c r="B293" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.35">
@@ -3823,7 +3855,7 @@
         <v>304</v>
       </c>
       <c r="B294" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.35">
@@ -3831,7 +3863,7 @@
         <v>305</v>
       </c>
       <c r="B295" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.35">
@@ -3839,7 +3871,7 @@
         <v>306</v>
       </c>
       <c r="B296" t="s">
-        <v>1</v>
+        <v>361</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.35">
@@ -3847,7 +3879,7 @@
         <v>307</v>
       </c>
       <c r="B297" t="s">
-        <v>1</v>
+        <v>361</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.35">
@@ -3951,7 +3983,7 @@
         <v>320</v>
       </c>
       <c r="B310" t="s">
-        <v>6</v>
+        <v>172</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.35">
@@ -4031,7 +4063,7 @@
         <v>330</v>
       </c>
       <c r="B320" t="s">
-        <v>4</v>
+        <v>358</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.35">
@@ -4111,7 +4143,7 @@
         <v>339</v>
       </c>
       <c r="B330" t="s">
-        <v>1</v>
+        <v>359</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.35">
@@ -4119,7 +4151,7 @@
         <v>340</v>
       </c>
       <c r="B331" t="s">
-        <v>1</v>
+        <v>359</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.35">
@@ -4135,7 +4167,7 @@
         <v>342</v>
       </c>
       <c r="B333" t="s">
-        <v>4</v>
+        <v>358</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.35">
@@ -4143,7 +4175,7 @@
         <v>343</v>
       </c>
       <c r="B334" t="s">
-        <v>4</v>
+        <v>358</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.35">
@@ -4151,7 +4183,7 @@
         <v>344</v>
       </c>
       <c r="B335" t="s">
-        <v>4</v>
+        <v>358</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.35">
@@ -4159,7 +4191,7 @@
         <v>345</v>
       </c>
       <c r="B336" t="s">
-        <v>4</v>
+        <v>358</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.35">
@@ -4167,7 +4199,7 @@
         <v>346</v>
       </c>
       <c r="B337" t="s">
-        <v>4</v>
+        <v>358</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.35">
@@ -4175,7 +4207,7 @@
         <v>347</v>
       </c>
       <c r="B338" t="s">
-        <v>4</v>
+        <v>358</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.35">
@@ -4183,7 +4215,7 @@
         <v>348</v>
       </c>
       <c r="B339" t="s">
-        <v>4</v>
+        <v>358</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.35">
@@ -4191,7 +4223,7 @@
         <v>349</v>
       </c>
       <c r="B340" t="s">
-        <v>4</v>
+        <v>358</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.35">
@@ -4238,13 +4270,16 @@
       <c r="A346" t="s">
         <v>5</v>
       </c>
+      <c r="B346" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A347" t="s">
         <v>355</v>
       </c>
       <c r="B347" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.35">
@@ -4252,7 +4287,7 @@
         <v>356</v>
       </c>
       <c r="B348" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.35">
@@ -4260,10 +4295,11 @@
         <v>357</v>
       </c>
       <c r="B349" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:B349" xr:uid="{98D1733D-F13D-4CB6-83C4-5BC8897837CD}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/assets/majors.xlsx
+++ b/assets/majors.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alasw\Documents\UMich\MADS\Courses\SIADS - 593 Milestone 1\Project\Project\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98AA2F77-3089-4D5F-AD9D-1A64DB3FAF6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CA70F9C-C627-4416-A222-D4365D55D26A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6420" yWindow="2740" windowWidth="28800" windowHeight="16320" xr2:uid="{8E3DFEB7-E3CC-4047-925A-F8240E372E2B}"/>
+    <workbookView xWindow="40320" yWindow="12390" windowWidth="17320" windowHeight="16320" xr2:uid="{8E3DFEB7-E3CC-4047-925A-F8240E372E2B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1575,7 +1575,7 @@
         <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
@@ -1583,7 +1583,7 @@
         <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
@@ -1591,7 +1591,7 @@
         <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
@@ -1599,7 +1599,7 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
@@ -1607,7 +1607,7 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">

--- a/assets/majors.xlsx
+++ b/assets/majors.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alasw\Documents\UMich\MADS\Courses\SIADS - 593 Milestone 1\Project\Project\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CA70F9C-C627-4416-A222-D4365D55D26A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27D0A366-D5BC-4230-A704-993F529574DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40320" yWindow="12390" windowWidth="17320" windowHeight="16320" xr2:uid="{8E3DFEB7-E3CC-4047-925A-F8240E372E2B}"/>
+    <workbookView xWindow="38290" yWindow="-110" windowWidth="21820" windowHeight="37900" xr2:uid="{8E3DFEB7-E3CC-4047-925A-F8240E372E2B}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="majors" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$349</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">majors!$A$1:$B$349</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1498,7 +1498,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98D1733D-F13D-4CB6-83C4-5BC8897837CD}">
   <dimension ref="A1:B349"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A87" sqref="A87"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>

--- a/assets/majors.xlsx
+++ b/assets/majors.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alasw\Documents\UMich\MADS\Courses\SIADS - 593 Milestone 1\Project\Project\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27D0A366-D5BC-4230-A704-993F529574DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF864123-6CFF-4BF6-8FA0-51CA824418F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38290" yWindow="-110" windowWidth="21820" windowHeight="37900" xr2:uid="{8E3DFEB7-E3CC-4047-925A-F8240E372E2B}"/>
+    <workbookView xWindow="41280" yWindow="18410" windowWidth="17320" windowHeight="16320" xr2:uid="{8E3DFEB7-E3CC-4047-925A-F8240E372E2B}"/>
   </bookViews>
   <sheets>
     <sheet name="majors" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">majors!$A$1:$B$349</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">majors!$A$1:$B$350</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="362">
   <si>
     <t>Business and financial operations occupations</t>
   </si>
@@ -59,9 +59,6 @@
     <t>Unclassified</t>
   </si>
   <si>
-    <t>Healthcare practitioner and technical occupations</t>
-  </si>
-  <si>
     <t>Oceanog Mrn Geol &amp; Geochem BS</t>
   </si>
   <si>
@@ -1125,6 +1122,9 @@
   </si>
   <si>
     <t>Management occupations</t>
+  </si>
+  <si>
+    <t>Undeclared</t>
   </si>
 </sst>
 </file>
@@ -1496,10 +1496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98D1733D-F13D-4CB6-83C4-5BC8897837CD}">
-  <dimension ref="A1:B349"/>
+  <dimension ref="A1:B350"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A87" sqref="A87"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1510,23 +1510,23 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
         <v>9</v>
-      </c>
-      <c r="B1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -1534,7 +1534,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -1542,7 +1542,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
@@ -1550,7 +1550,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
@@ -1558,7 +1558,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
@@ -1566,7 +1566,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
@@ -1574,7 +1574,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
         <v>1</v>
@@ -1582,7 +1582,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
         <v>1</v>
@@ -1590,7 +1590,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
         <v>1</v>
@@ -1598,7 +1598,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s">
         <v>1</v>
@@ -1606,7 +1606,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>1</v>
@@ -1614,7 +1614,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>3</v>
@@ -1622,7 +1622,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>3</v>
@@ -1630,7 +1630,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
         <v>3</v>
@@ -1638,15 +1638,15 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B18" t="s">
         <v>2</v>
@@ -1654,7 +1654,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B19" t="s">
         <v>2</v>
@@ -1662,7 +1662,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B20" t="s">
         <v>2</v>
@@ -1670,7 +1670,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B21" t="s">
         <v>2</v>
@@ -1678,7 +1678,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B22" t="s">
         <v>3</v>
@@ -1686,7 +1686,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B23" t="s">
         <v>3</v>
@@ -1694,7 +1694,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B24" t="s">
         <v>3</v>
@@ -1702,7 +1702,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B25" t="s">
         <v>3</v>
@@ -1710,7 +1710,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B26" t="s">
         <v>3</v>
@@ -1718,7 +1718,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B27" t="s">
         <v>3</v>
@@ -1726,7 +1726,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B28" t="s">
         <v>1</v>
@@ -1734,7 +1734,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B29" t="s">
         <v>1</v>
@@ -1742,7 +1742,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B30" t="s">
         <v>1</v>
@@ -1750,7 +1750,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B31" t="s">
         <v>1</v>
@@ -1758,7 +1758,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B32" t="s">
         <v>1</v>
@@ -1766,7 +1766,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B33" t="s">
         <v>1</v>
@@ -1774,7 +1774,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B34" t="s">
         <v>1</v>
@@ -1782,7 +1782,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B35" t="s">
         <v>1</v>
@@ -1790,7 +1790,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B36" t="s">
         <v>1</v>
@@ -1798,7 +1798,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B37" t="s">
         <v>1</v>
@@ -1806,15 +1806,15 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B38" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B39" t="s">
         <v>1</v>
@@ -1822,7 +1822,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B40" t="s">
         <v>1</v>
@@ -1830,7 +1830,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B41" t="s">
         <v>1</v>
@@ -1838,7 +1838,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B42" t="s">
         <v>1</v>
@@ -1846,7 +1846,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B43" t="s">
         <v>1</v>
@@ -1854,7 +1854,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B44" t="s">
         <v>1</v>
@@ -1862,7 +1862,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B45" t="s">
         <v>1</v>
@@ -1870,7 +1870,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B46" t="s">
         <v>1</v>
@@ -1878,7 +1878,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B47" t="s">
         <v>1</v>
@@ -1886,7 +1886,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B48" t="s">
         <v>1</v>
@@ -1894,7 +1894,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B49" t="s">
         <v>1</v>
@@ -1902,7 +1902,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B50" t="s">
         <v>1</v>
@@ -1910,15 +1910,15 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
+        <v>59</v>
+      </c>
+      <c r="B51" t="s">
         <v>60</v>
-      </c>
-      <c r="B51" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B52" t="s">
         <v>1</v>
@@ -1926,7 +1926,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B53" t="s">
         <v>1</v>
@@ -1934,7 +1934,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B54" t="s">
         <v>1</v>
@@ -1942,7 +1942,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B55" t="s">
         <v>3</v>
@@ -1950,15 +1950,15 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B56" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B57" t="s">
         <v>1</v>
@@ -1966,7 +1966,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B58" t="s">
         <v>1</v>
@@ -1974,7 +1974,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B59" t="s">
         <v>1</v>
@@ -1982,7 +1982,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B60" t="s">
         <v>3</v>
@@ -1990,7 +1990,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B61" t="s">
         <v>3</v>
@@ -1998,23 +1998,23 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B62" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B63" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B64" t="s">
         <v>1</v>
@@ -2022,7 +2022,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B65" t="s">
         <v>1</v>
@@ -2030,7 +2030,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B66" t="s">
         <v>3</v>
@@ -2038,7 +2038,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B67" t="s">
         <v>3</v>
@@ -2046,7 +2046,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B68" t="s">
         <v>3</v>
@@ -2054,7 +2054,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B69" t="s">
         <v>3</v>
@@ -2062,7 +2062,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B70" t="s">
         <v>3</v>
@@ -2070,7 +2070,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B71" t="s">
         <v>1</v>
@@ -2078,7 +2078,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B72" t="s">
         <v>1</v>
@@ -2086,7 +2086,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B73" t="s">
         <v>3</v>
@@ -2094,7 +2094,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B74" t="s">
         <v>3</v>
@@ -2102,7 +2102,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B75" t="s">
         <v>3</v>
@@ -2110,7 +2110,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B76" t="s">
         <v>3</v>
@@ -2118,7 +2118,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B77" t="s">
         <v>3</v>
@@ -2126,7 +2126,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B78" t="s">
         <v>3</v>
@@ -2134,7 +2134,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B79" t="s">
         <v>4</v>
@@ -2142,15 +2142,15 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B80" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B81" t="s">
         <v>4</v>
@@ -2158,7 +2158,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B82" t="s">
         <v>4</v>
@@ -2166,7 +2166,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B83" t="s">
         <v>4</v>
@@ -2174,7 +2174,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B84" t="s">
         <v>4</v>
@@ -2182,7 +2182,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B85" t="s">
         <v>2</v>
@@ -2190,7 +2190,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B86" t="s">
         <v>2</v>
@@ -2198,7 +2198,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B87" t="s">
         <v>2</v>
@@ -2206,7 +2206,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B88" t="s">
         <v>2</v>
@@ -2214,7 +2214,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B89" t="s">
         <v>2</v>
@@ -2222,7 +2222,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B90" t="s">
         <v>2</v>
@@ -2230,15 +2230,15 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B91" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B92" t="s">
         <v>2</v>
@@ -2246,7 +2246,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B93" t="s">
         <v>2</v>
@@ -2254,7 +2254,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B94" t="s">
         <v>2</v>
@@ -2262,7 +2262,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B95" t="s">
         <v>2</v>
@@ -2270,7 +2270,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B96" t="s">
         <v>2</v>
@@ -2278,7 +2278,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B97" t="s">
         <v>1</v>
@@ -2286,7 +2286,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B98" t="s">
         <v>1</v>
@@ -2294,7 +2294,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B99" t="s">
         <v>1</v>
@@ -2302,15 +2302,15 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B100" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B101" t="s">
         <v>1</v>
@@ -2318,7 +2318,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B102" t="s">
         <v>1</v>
@@ -2326,7 +2326,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B103" t="s">
         <v>1</v>
@@ -2334,7 +2334,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B104" t="s">
         <v>1</v>
@@ -2342,7 +2342,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B105" t="s">
         <v>1</v>
@@ -2350,7 +2350,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B106" t="s">
         <v>3</v>
@@ -2358,7 +2358,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B107" t="s">
         <v>3</v>
@@ -2366,7 +2366,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B108" t="s">
         <v>3</v>
@@ -2374,7 +2374,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B109" t="s">
         <v>3</v>
@@ -2382,119 +2382,119 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B110" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B111" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B112" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B113" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B114" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B115" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B116" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B117" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B118" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B119" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B120" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B121" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B122" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B123" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B124" t="s">
         <v>3</v>
@@ -2502,7 +2502,7 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B125" t="s">
         <v>3</v>
@@ -2510,7 +2510,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B126" t="s">
         <v>1</v>
@@ -2518,7 +2518,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B127" t="s">
         <v>1</v>
@@ -2526,7 +2526,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B128" t="s">
         <v>1</v>
@@ -2534,7 +2534,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B129" t="s">
         <v>2</v>
@@ -2542,15 +2542,15 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B130" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B131" t="s">
         <v>1</v>
@@ -2558,7 +2558,7 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B132" t="s">
         <v>1</v>
@@ -2566,7 +2566,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B133" t="s">
         <v>1</v>
@@ -2574,7 +2574,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B134" t="s">
         <v>1</v>
@@ -2582,7 +2582,7 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B135" t="s">
         <v>3</v>
@@ -2590,7 +2590,7 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B136" t="s">
         <v>2</v>
@@ -2598,7 +2598,7 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B137" t="s">
         <v>2</v>
@@ -2606,7 +2606,7 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B138" t="s">
         <v>3</v>
@@ -2614,7 +2614,7 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B139" t="s">
         <v>3</v>
@@ -2622,7 +2622,7 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B140" t="s">
         <v>1</v>
@@ -2630,7 +2630,7 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B141" t="s">
         <v>1</v>
@@ -2638,7 +2638,7 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B142" t="s">
         <v>1</v>
@@ -2646,7 +2646,7 @@
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B143" t="s">
         <v>3</v>
@@ -2654,7 +2654,7 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B144" t="s">
         <v>3</v>
@@ -2662,7 +2662,7 @@
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B145" t="s">
         <v>1</v>
@@ -2670,7 +2670,7 @@
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B146" t="s">
         <v>1</v>
@@ -2678,7 +2678,7 @@
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B147" t="s">
         <v>3</v>
@@ -2686,7 +2686,7 @@
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B148" t="s">
         <v>3</v>
@@ -2694,7 +2694,7 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B149" t="s">
         <v>3</v>
@@ -2702,7 +2702,7 @@
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B150" t="s">
         <v>2</v>
@@ -2710,7 +2710,7 @@
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B151" t="s">
         <v>2</v>
@@ -2718,7 +2718,7 @@
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B152" t="s">
         <v>3</v>
@@ -2726,7 +2726,7 @@
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B153" t="s">
         <v>3</v>
@@ -2734,7 +2734,7 @@
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B154" t="s">
         <v>3</v>
@@ -2742,7 +2742,7 @@
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B155" t="s">
         <v>3</v>
@@ -2750,7 +2750,7 @@
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B156" t="s">
         <v>3</v>
@@ -2758,7 +2758,7 @@
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B157" t="s">
         <v>3</v>
@@ -2766,7 +2766,7 @@
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B158" t="s">
         <v>3</v>
@@ -2774,7 +2774,7 @@
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B159" t="s">
         <v>3</v>
@@ -2782,7 +2782,7 @@
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B160" t="s">
         <v>2</v>
@@ -2790,15 +2790,15 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
+        <v>170</v>
+      </c>
+      <c r="B161" t="s">
         <v>171</v>
-      </c>
-      <c r="B161" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B162" t="s">
         <v>3</v>
@@ -2806,7 +2806,7 @@
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B163" t="s">
         <v>3</v>
@@ -2814,15 +2814,15 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B164" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B165" t="s">
         <v>2</v>
@@ -2830,7 +2830,7 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B166" t="s">
         <v>2</v>
@@ -2838,7 +2838,7 @@
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B167" t="s">
         <v>4</v>
@@ -2846,7 +2846,7 @@
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B168" t="s">
         <v>4</v>
@@ -2854,7 +2854,7 @@
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B169" t="s">
         <v>4</v>
@@ -2862,7 +2862,7 @@
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B170" t="s">
         <v>2</v>
@@ -2870,7 +2870,7 @@
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B171" t="s">
         <v>1</v>
@@ -2878,7 +2878,7 @@
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B172" t="s">
         <v>1</v>
@@ -2886,7 +2886,7 @@
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B173" t="s">
         <v>1</v>
@@ -2894,7 +2894,7 @@
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B174" t="s">
         <v>1</v>
@@ -2902,7 +2902,7 @@
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B175" t="s">
         <v>1</v>
@@ -2910,7 +2910,7 @@
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B176" t="s">
         <v>2</v>
@@ -2918,7 +2918,7 @@
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B177" t="s">
         <v>3</v>
@@ -2926,7 +2926,7 @@
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B178" t="s">
         <v>3</v>
@@ -2934,7 +2934,7 @@
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B179" t="s">
         <v>3</v>
@@ -2942,7 +2942,7 @@
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B180" t="s">
         <v>3</v>
@@ -2950,7 +2950,7 @@
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B181" t="s">
         <v>3</v>
@@ -2958,7 +2958,7 @@
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B182" t="s">
         <v>3</v>
@@ -2966,7 +2966,7 @@
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B183" t="s">
         <v>2</v>
@@ -2974,7 +2974,7 @@
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B184" t="s">
         <v>2</v>
@@ -2982,7 +2982,7 @@
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B185" t="s">
         <v>2</v>
@@ -2990,7 +2990,7 @@
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B186" t="s">
         <v>2</v>
@@ -2998,7 +2998,7 @@
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B187" t="s">
         <v>3</v>
@@ -3006,7 +3006,7 @@
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B188" t="s">
         <v>3</v>
@@ -3014,15 +3014,15 @@
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B189" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B190" t="s">
         <v>2</v>
@@ -3030,7 +3030,7 @@
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B191" t="s">
         <v>3</v>
@@ -3038,7 +3038,7 @@
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B192" t="s">
         <v>3</v>
@@ -3046,7 +3046,7 @@
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B193" t="s">
         <v>3</v>
@@ -3054,7 +3054,7 @@
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B194" t="s">
         <v>3</v>
@@ -3062,7 +3062,7 @@
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B195" t="s">
         <v>3</v>
@@ -3070,7 +3070,7 @@
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B196" t="s">
         <v>3</v>
@@ -3078,7 +3078,7 @@
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B197" t="s">
         <v>3</v>
@@ -3086,7 +3086,7 @@
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B198" t="s">
         <v>3</v>
@@ -3094,7 +3094,7 @@
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B199" t="s">
         <v>1</v>
@@ -3102,15 +3102,15 @@
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B200" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B201" t="s">
         <v>4</v>
@@ -3118,7 +3118,7 @@
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B202" t="s">
         <v>4</v>
@@ -3126,7 +3126,7 @@
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B203" t="s">
         <v>4</v>
@@ -3134,23 +3134,23 @@
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B204" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B205" t="s">
-        <v>6</v>
+        <v>359</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B206" t="s">
         <v>1</v>
@@ -3158,7 +3158,7 @@
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B207" t="s">
         <v>3</v>
@@ -3166,7 +3166,7 @@
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B208" t="s">
         <v>3</v>
@@ -3174,7 +3174,7 @@
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B209" t="s">
         <v>2</v>
@@ -3182,7 +3182,7 @@
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B210" t="s">
         <v>1</v>
@@ -3190,7 +3190,7 @@
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B211" t="s">
         <v>1</v>
@@ -3198,7 +3198,7 @@
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B212" t="s">
         <v>1</v>
@@ -3206,7 +3206,7 @@
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B213" t="s">
         <v>3</v>
@@ -3214,7 +3214,7 @@
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B214" t="s">
         <v>2</v>
@@ -3222,7 +3222,7 @@
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B215" t="s">
         <v>3</v>
@@ -3230,7 +3230,7 @@
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B216" t="s">
         <v>3</v>
@@ -3238,7 +3238,7 @@
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B217" t="s">
         <v>1</v>
@@ -3246,7 +3246,7 @@
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B218" t="s">
         <v>2</v>
@@ -3254,7 +3254,7 @@
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B219" t="s">
         <v>2</v>
@@ -3262,7 +3262,7 @@
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B220" t="s">
         <v>2</v>
@@ -3270,7 +3270,7 @@
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B221" t="s">
         <v>2</v>
@@ -3278,7 +3278,7 @@
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B222" t="s">
         <v>2</v>
@@ -3286,7 +3286,7 @@
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B223" t="s">
         <v>3</v>
@@ -3294,7 +3294,7 @@
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B224" t="s">
         <v>3</v>
@@ -3302,7 +3302,7 @@
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B225" t="s">
         <v>3</v>
@@ -3310,7 +3310,7 @@
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B226" t="s">
         <v>3</v>
@@ -3318,7 +3318,7 @@
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B227" t="s">
         <v>2</v>
@@ -3326,7 +3326,7 @@
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B228" t="s">
         <v>2</v>
@@ -3334,7 +3334,7 @@
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B229" t="s">
         <v>2</v>
@@ -3342,7 +3342,7 @@
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B230" t="s">
         <v>2</v>
@@ -3350,7 +3350,7 @@
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B231" t="s">
         <v>1</v>
@@ -3358,7 +3358,7 @@
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B232" t="s">
         <v>1</v>
@@ -3366,7 +3366,7 @@
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B233" t="s">
         <v>1</v>
@@ -3374,15 +3374,15 @@
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B234" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B235" t="s">
         <v>3</v>
@@ -3390,7 +3390,7 @@
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B236" t="s">
         <v>3</v>
@@ -3398,7 +3398,7 @@
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B237" t="s">
         <v>3</v>
@@ -3406,7 +3406,7 @@
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B238" t="s">
         <v>3</v>
@@ -3414,7 +3414,7 @@
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B239" t="s">
         <v>3</v>
@@ -3422,7 +3422,7 @@
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B240" t="s">
         <v>1</v>
@@ -3430,7 +3430,7 @@
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B241" t="s">
         <v>1</v>
@@ -3438,7 +3438,7 @@
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B242" t="s">
         <v>1</v>
@@ -3446,7 +3446,7 @@
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B243" t="s">
         <v>1</v>
@@ -3454,63 +3454,63 @@
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B244" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B245" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B246" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B247" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B248" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B249" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B250" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B251" t="s">
         <v>1</v>
@@ -3518,7 +3518,7 @@
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B252" t="s">
         <v>1</v>
@@ -3526,23 +3526,23 @@
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B253" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B254" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B255" t="s">
         <v>2</v>
@@ -3550,7 +3550,7 @@
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B256" t="s">
         <v>2</v>
@@ -3558,7 +3558,7 @@
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B257" t="s">
         <v>2</v>
@@ -3566,7 +3566,7 @@
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B258" t="s">
         <v>2</v>
@@ -3574,7 +3574,7 @@
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B259" t="s">
         <v>1</v>
@@ -3582,7 +3582,7 @@
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B260" t="s">
         <v>3</v>
@@ -3590,7 +3590,7 @@
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B261" t="s">
         <v>3</v>
@@ -3598,7 +3598,7 @@
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B262" t="s">
         <v>3</v>
@@ -3606,7 +3606,7 @@
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B263" t="s">
         <v>2</v>
@@ -3614,7 +3614,7 @@
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B264" t="s">
         <v>3</v>
@@ -3622,7 +3622,7 @@
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B265" t="s">
         <v>3</v>
@@ -3630,7 +3630,7 @@
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B266" t="s">
         <v>3</v>
@@ -3638,7 +3638,7 @@
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B267" t="s">
         <v>1</v>
@@ -3646,7 +3646,7 @@
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B268" t="s">
         <v>1</v>
@@ -3654,7 +3654,7 @@
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B269" t="s">
         <v>1</v>
@@ -3662,7 +3662,7 @@
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B270" t="s">
         <v>1</v>
@@ -3670,7 +3670,7 @@
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B271" t="s">
         <v>2</v>
@@ -3678,7 +3678,7 @@
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B272" t="s">
         <v>2</v>
@@ -3686,7 +3686,7 @@
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B273" t="s">
         <v>1</v>
@@ -3694,7 +3694,7 @@
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B274" t="s">
         <v>1</v>
@@ -3702,7 +3702,7 @@
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B275" t="s">
         <v>2</v>
@@ -3710,7 +3710,7 @@
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B276" t="s">
         <v>0</v>
@@ -3718,7 +3718,7 @@
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B277" t="s">
         <v>0</v>
@@ -3726,7 +3726,7 @@
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B278" t="s">
         <v>0</v>
@@ -3734,7 +3734,7 @@
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B279" t="s">
         <v>0</v>
@@ -3742,7 +3742,7 @@
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B280" t="s">
         <v>0</v>
@@ -3750,87 +3750,87 @@
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B281" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B282" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B283" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B284" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B285" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B286" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B287" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B288" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B289" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B290" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B291" t="s">
         <v>0</v>
@@ -3838,7 +3838,7 @@
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B292" t="s">
         <v>1</v>
@@ -3846,7 +3846,7 @@
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B293" t="s">
         <v>1</v>
@@ -3854,7 +3854,7 @@
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B294" t="s">
         <v>1</v>
@@ -3862,7 +3862,7 @@
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B295" t="s">
         <v>1</v>
@@ -3870,23 +3870,23 @@
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B296" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B297" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B298" t="s">
         <v>3</v>
@@ -3894,7 +3894,7 @@
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B299" t="s">
         <v>3</v>
@@ -3902,7 +3902,7 @@
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B300" t="s">
         <v>3</v>
@@ -3910,7 +3910,7 @@
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B301" t="s">
         <v>3</v>
@@ -3918,7 +3918,7 @@
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B302" t="s">
         <v>3</v>
@@ -3926,7 +3926,7 @@
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B303" t="s">
         <v>3</v>
@@ -3934,7 +3934,7 @@
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B304" t="s">
         <v>3</v>
@@ -3942,7 +3942,7 @@
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B305" t="s">
         <v>3</v>
@@ -3950,7 +3950,7 @@
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B306" t="s">
         <v>2</v>
@@ -3958,7 +3958,7 @@
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B307" t="s">
         <v>2</v>
@@ -3966,7 +3966,7 @@
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B308" t="s">
         <v>2</v>
@@ -3974,7 +3974,7 @@
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B309" t="s">
         <v>2</v>
@@ -3982,15 +3982,15 @@
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B310" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A311" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B311" t="s">
         <v>1</v>
@@ -3998,7 +3998,7 @@
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A312" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B312" t="s">
         <v>1</v>
@@ -4006,7 +4006,7 @@
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A313" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B313" t="s">
         <v>1</v>
@@ -4014,7 +4014,7 @@
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A314" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B314" t="s">
         <v>1</v>
@@ -4022,7 +4022,7 @@
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A315" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B315" t="s">
         <v>1</v>
@@ -4030,7 +4030,7 @@
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A316" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B316" t="s">
         <v>1</v>
@@ -4038,7 +4038,7 @@
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A317" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B317" t="s">
         <v>1</v>
@@ -4046,7 +4046,7 @@
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A318" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B318" t="s">
         <v>1</v>
@@ -4054,7 +4054,7 @@
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A319" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B319" t="s">
         <v>1</v>
@@ -4062,15 +4062,15 @@
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A320" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B320" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A321" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B321" t="s">
         <v>3</v>
@@ -4078,7 +4078,7 @@
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A322" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B322" t="s">
         <v>3</v>
@@ -4086,7 +4086,7 @@
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A323" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B323" t="s">
         <v>3</v>
@@ -4094,7 +4094,7 @@
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A324" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B324" t="s">
         <v>2</v>
@@ -4102,7 +4102,7 @@
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A325" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B325" t="s">
         <v>2</v>
@@ -4110,7 +4110,7 @@
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A326" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B326" t="s">
         <v>2</v>
@@ -4118,7 +4118,7 @@
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A327" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B327" t="s">
         <v>2</v>
@@ -4126,7 +4126,7 @@
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A328" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B328" t="s">
         <v>4</v>
@@ -4134,7 +4134,7 @@
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A329" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B329" t="s">
         <v>4</v>
@@ -4142,23 +4142,23 @@
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A330" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B330" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A331" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B331" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A332" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B332" t="s">
         <v>1</v>
@@ -4166,71 +4166,71 @@
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A333" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B333" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A334" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B334" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A335" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B335" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A336" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B336" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A337" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B337" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A338" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B338" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A339" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B339" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A340" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B340" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A341" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B341" t="s">
         <v>3</v>
@@ -4238,7 +4238,7 @@
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A342" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B342" t="s">
         <v>2</v>
@@ -4246,7 +4246,7 @@
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A343" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B343" t="s">
         <v>2</v>
@@ -4254,7 +4254,7 @@
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A344" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B344" t="s">
         <v>2</v>
@@ -4262,7 +4262,7 @@
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A345" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B345" t="s">
         <v>2</v>
@@ -4278,7 +4278,7 @@
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A347" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B347" t="s">
         <v>3</v>
@@ -4286,7 +4286,7 @@
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A348" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B348" t="s">
         <v>3</v>
@@ -4294,14 +4294,21 @@
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A349" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B349" t="s">
         <v>3</v>
       </c>
     </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A350" t="s">
+        <v>361</v>
+      </c>
+      <c r="B350" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B349" xr:uid="{98D1733D-F13D-4CB6-83C4-5BC8897837CD}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/assets/majors.xlsx
+++ b/assets/majors.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alasw\Documents\UMich\MADS\Courses\SIADS - 593 Milestone 1\Project\Project\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF864123-6CFF-4BF6-8FA0-51CA824418F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C43E93F-A93D-4F3C-BE68-3FE4A0746D8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41280" yWindow="18410" windowWidth="17320" windowHeight="16320" xr2:uid="{8E3DFEB7-E3CC-4047-925A-F8240E372E2B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{8E3DFEB7-E3CC-4047-925A-F8240E372E2B}"/>
   </bookViews>
   <sheets>
     <sheet name="majors" sheetId="1" r:id="rId1"/>
@@ -1498,9 +1498,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98D1733D-F13D-4CB6-83C4-5BC8897837CD}">
   <dimension ref="A1:B350"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1753,7 +1751,7 @@
         <v>39</v>
       </c>
       <c r="B31" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
@@ -1945,7 +1943,7 @@
         <v>64</v>
       </c>
       <c r="B55" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
@@ -2033,7 +2031,7 @@
         <v>75</v>
       </c>
       <c r="B66" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
@@ -2041,7 +2039,7 @@
         <v>76</v>
       </c>
       <c r="B67" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
@@ -2049,7 +2047,7 @@
         <v>77</v>
       </c>
       <c r="B68" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
@@ -2057,7 +2055,7 @@
         <v>78</v>
       </c>
       <c r="B69" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
@@ -2089,7 +2087,7 @@
         <v>82</v>
       </c>
       <c r="B73" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
@@ -2097,7 +2095,7 @@
         <v>83</v>
       </c>
       <c r="B74" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
@@ -2121,7 +2119,7 @@
         <v>86</v>
       </c>
       <c r="B77" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
@@ -2129,7 +2127,7 @@
         <v>87</v>
       </c>
       <c r="B78" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
@@ -2585,7 +2583,7 @@
         <v>144</v>
       </c>
       <c r="B135" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.35">
@@ -2753,7 +2751,7 @@
         <v>165</v>
       </c>
       <c r="B156" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.35">
@@ -2761,7 +2759,7 @@
         <v>166</v>
       </c>
       <c r="B157" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.35">
@@ -2769,7 +2767,7 @@
         <v>167</v>
       </c>
       <c r="B158" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.35">
@@ -2777,7 +2775,7 @@
         <v>168</v>
       </c>
       <c r="B159" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.35">
@@ -3073,7 +3071,7 @@
         <v>206</v>
       </c>
       <c r="B196" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.35">
@@ -3081,7 +3079,7 @@
         <v>207</v>
       </c>
       <c r="B197" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.35">
@@ -3097,7 +3095,7 @@
         <v>209</v>
       </c>
       <c r="B199" t="s">
-        <v>1</v>
+        <v>357</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.35">
@@ -3161,7 +3159,7 @@
         <v>217</v>
       </c>
       <c r="B207" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.35">
@@ -3169,7 +3167,7 @@
         <v>218</v>
       </c>
       <c r="B208" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.35">
@@ -3305,7 +3303,7 @@
         <v>235</v>
       </c>
       <c r="B225" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.35">
@@ -4281,7 +4279,7 @@
         <v>354</v>
       </c>
       <c r="B347" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.35">
@@ -4289,7 +4287,7 @@
         <v>355</v>
       </c>
       <c r="B348" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.35">
@@ -4297,7 +4295,7 @@
         <v>356</v>
       </c>
       <c r="B349" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.35">
